--- a/interface/parameterization/password.xlsx
+++ b/interface/parameterization/password.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="get_code" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>mobile</t>
   </si>
   <si>
     <t>password</t>
@@ -27,46 +27,40 @@
     <t>result</t>
   </si>
   <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>无效手机号</t>
+  </si>
+  <si>
     <t>13944096337</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>验证码错误</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>440</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>13944</t>
   </si>
 </sst>
 </file>
@@ -89,14 +83,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,16 +165,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,22 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,61 +221,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +235,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +426,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,50 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +517,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,15 +1031,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.625"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1072,19 +1067,119 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,71 +1191,61 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1173,14 +1258,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/interface/parameterization/password.xlsx
+++ b/interface/parameterization/password.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>445</t>
   </si>
   <si>
-    <t>成功</t>
+    <t>成功 请求过于频繁</t>
   </si>
   <si>
     <t>13944</t>
@@ -1033,8 +1033,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1193,7 +1193,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
